--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_11-54.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_11-54.xlsx
@@ -134,7 +134,19 @@
     <t>0:9</t>
   </si>
   <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>RUMAXIMAP 120MG 10 F.C. TAB</t>
+  </si>
+  <si>
     <t>TRIMELASMA TOP. CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>TRYPSALIN PLUS 30 TABS</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
@@ -1289,17 +1301,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1321,7 +1333,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>35</v>
+        <v>65.75</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1341,13 +1353,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1359,7 +1371,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1367,17 +1379,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1385,7 +1397,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1399,7 +1411,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1411,7 +1423,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1419,13 +1431,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1437,7 +1449,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1445,13 +1457,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1463,7 +1475,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1471,13 +1483,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1489,7 +1501,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1497,13 +1509,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>19.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1523,7 +1535,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -1541,7 +1553,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1549,51 +1561,129 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="35" ht="26.25" customHeight="1">
-      <c r="K35" s="10">
-        <v>1613.4000000000001</v>
-      </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="11">
-        <v>56</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c t="s" r="F36" s="12">
+    <row r="35" ht="25.5" customHeight="1">
+      <c r="A35" s="6">
+        <v>32</v>
+      </c>
+      <c t="s" r="B35" s="7">
         <v>57</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
-      <c t="s" r="I36" s="14">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c t="s" r="H35" s="8">
+        <v>48</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="9">
+        <v>19.199999999999999</v>
+      </c>
+      <c r="M35" s="9"/>
+      <c t="s" r="N35" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" ht="24.75" customHeight="1">
+      <c r="A36" s="6">
+        <v>33</v>
+      </c>
+      <c t="s" r="B36" s="7">
         <v>58</v>
       </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c t="s" r="H36" s="8">
+        <v>15</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="9">
+        <v>20</v>
+      </c>
+      <c r="M36" s="9"/>
+      <c t="s" r="N36" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="6">
+        <v>34</v>
+      </c>
+      <c t="s" r="B37" s="7">
+        <v>59</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c t="s" r="H37" s="8">
+        <v>25</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="9">
+        <v>30</v>
+      </c>
+      <c r="M37" s="9"/>
+      <c t="s" r="N37" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" ht="25.5" customHeight="1">
+      <c r="K38" s="10">
+        <v>1782.1500000000001</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+    </row>
+    <row r="39" ht="17.25" customHeight="1">
+      <c t="s" r="A39" s="11">
+        <v>60</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c t="s" r="F39" s="12">
+        <v>61</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13"/>
+      <c t="s" r="I39" s="14">
+        <v>62</v>
+      </c>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="104">
+  <mergeCells count="113">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1694,10 +1784,19 @@
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:N39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
